--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2147.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2147.xlsx
@@ -354,7 +354,7 @@
         <v>2.827301181096564</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.302521979987423</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2147.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2147.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.370382545730043</v>
+        <v>0.7115070223808289</v>
       </c>
       <c r="B1">
-        <v>2.827301181096564</v>
+        <v>1.498084306716919</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.302521979987423</v>
+        <v>1.980963945388794</v>
       </c>
       <c r="E1">
-        <v>0.6766165089958892</v>
+        <v>1.243313789367676</v>
       </c>
     </row>
   </sheetData>
